--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C286"/>
+  <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5228,6 +5228,57 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>8439.11947891409</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>8439.11947891409</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>8361.20401337793</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C289"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5279,6 +5279,23 @@
         </is>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>8418.00742207415</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C290"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5296,6 +5296,23 @@
         </is>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>8388.17149675697</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C291"/>
+  <dimension ref="A1:C292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5313,6 +5313,23 @@
         </is>
       </c>
     </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>8367.51048885118</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C292"/>
+  <dimension ref="A1:C293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5330,6 +5330,23 @@
         </is>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>8356.38203966339</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5347,6 +5347,57 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>8356.38203966339</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>8356.38203966339</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>8386.0909005008</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C296"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5398,6 +5398,23 @@
         </is>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>8225.11324011538</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C297"/>
+  <dimension ref="A1:C298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5415,6 +5415,23 @@
         </is>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>8172.56779778075</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5432,6 +5432,23 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>8196.2481962482</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
+++ b/Data/F022.FCIC3.STO.Z.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5449,6 +5449,23 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>24-12-2021</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>8283.36094453648</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
